--- a/data/trans_camb/P23_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_2_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,88</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>12,07</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,16</t>
+          <t>28,71</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,89</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21,7</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 12,35</t>
+          <t>-2,67; 17,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 5,08</t>
+          <t>-8,23; 10,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 19,82</t>
+          <t>-3,16; 23,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 12,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 2,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 14,83</t>
+          <t>4,04; 20,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 9,91</t>
+          <t>-5,99; 8,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 1,62</t>
+          <t>17,86; 39,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 15,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 16,0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 7,43</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>13,4; 30,01</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-19,49%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>61,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,98%</t>
+          <t>62,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-16,94%</t>
+          <t>147,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>51,8%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>113,6%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,65; 62,37</t>
+          <t>-11,22; 134,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,64; 27,21</t>
+          <t>-33,22; 78,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 104,6</t>
+          <t>-9,12; 167,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 63,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 13,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 71,36</t>
+          <t>17,66; 141,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 47,32</t>
+          <t>-24,83; 64,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 7,65</t>
+          <t>73,96; 252,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 71,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13,16; 97,41</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-18,8; 46,83</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>59,85; 190,42</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,27 +1016,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -878,17 +1046,47 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-4,46</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,89</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 3,05</t>
+          <t>-8,58; 4,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 3,5</t>
+          <t>-8,85; 3,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 8,97</t>
+          <t>4,09; 18,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 3,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 0,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 2,82</t>
+          <t>-9,57; 3,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 1,7</t>
+          <t>-12,16; 0,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 0,6</t>
+          <t>-5,86; 7,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 4,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,76; 2,12</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-8,92; -0,21</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 11,01</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,55%</t>
+          <t>-10,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,28%</t>
+          <t>-14,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>57,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,91%</t>
+          <t>-10,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>-18,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,59%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-10,94%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-18,05%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,04; 18,32</t>
+          <t>-40,35; 25,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,34; 21,76</t>
+          <t>-39,69; 20,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 55,42</t>
+          <t>16,62; 112,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 13,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 2,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,86; 12,3</t>
+          <t>-28,66; 11,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 8,07</t>
+          <t>-35,5; 1,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 2,42</t>
+          <t>-16,97; 30,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 19,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-25,44; 9,72</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-32,63; -0,25</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 50,03</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,88</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,24</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 0,71</t>
+          <t>-11,11; 2,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 1,95</t>
+          <t>-12,16; 1,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 3,47</t>
+          <t>-7,58; 7,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 5,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 3,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 2,08</t>
+          <t>-5,31; 6,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 1,7</t>
+          <t>-6,14; 5,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 1,05</t>
+          <t>-4,8; 8,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 1,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 2,75</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,62; 2,11</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 6,64</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-28,56%</t>
+          <t>-26,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-22,88%</t>
+          <t>-25,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-19,52%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,98%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-11,36%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-13,33%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-19,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-9,29%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-11,53%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,0; 6,83</t>
+          <t>-51,34; 17,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,93; 13,73</t>
+          <t>-52,64; 17,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,28; 23,82</t>
+          <t>-33,89; 53,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 25,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,18; 18,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,64; 10,17</t>
+          <t>-21,22; 36,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 9,21</t>
+          <t>-23,74; 28,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 6,05</t>
+          <t>-18,37; 45,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,03; 5,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-29,75; 16,5</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-30,02; 12,09</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-15,77; 40,39</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 1,92</t>
+          <t>-7,5; 5,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 8,96</t>
+          <t>-1,53; 12,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,01; -0,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 3,91</t>
+          <t>-7,25; 5,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,04; -1,08</t>
+          <t>-5,45; 7,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 4,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,49; 3,81</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 8,0</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-9,19%</t>
+          <t>-5,93%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-14,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>-3,41%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-14,89%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-5,23%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>12,2%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 11,72</t>
+          <t>-32,89; 31,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,51; 5,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,29; 52,05</t>
+          <t>-8,8; 73,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 16,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,21; -1,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 16,22</t>
+          <t>-24,41; 20,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 7,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,57; -4,84</t>
+          <t>-17,98; 31,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 22,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-22,2; 17,99</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 37,06</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-2,8</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6,52</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,29</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5,59</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>6,04</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,93; 2,3</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 0,69</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 10,8</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 3,48</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-6,61; -0,26</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,8; 9,38</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 2,14</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,41; -0,62</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 8,81</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-6,63%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-14,86%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>34,6%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-12,66%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>21,55%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-1,88%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-13,54%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>26,88%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-23,36; 13,79</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-32,05; 3,97</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>10,86; 64,23</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-9,89; 14,89</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-23,9; -0,69</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>6,57; 38,31</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-12,35; 10,24</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-22,57; -2,76</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 41,28</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
